--- a/rekapan.xlsx
+++ b/rekapan.xlsx
@@ -77,7 +77,7 @@
     <t>Nama Pengawas</t>
   </si>
   <si>
-    <t>Pengawas 1</t>
+    <t>Rio</t>
   </si>
   <si>
     <t>Jabatan Pengawas Pemilu</t>
@@ -1434,10 +1434,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A15" sqref="A15:E21"/>
+      <selection activeCell="A15" sqref="A15:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1587,27 +1587,6 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1643,10 +1622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T10"/>
+      <selection activeCell="A6" sqref="A6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1821,72 +1800,6 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1931,10 +1844,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T10"/>
+      <selection activeCell="A6" sqref="A6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2109,72 +2022,6 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2219,10 +2066,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T10"/>
+      <selection activeCell="A6" sqref="A6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2395,72 +2242,6 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2506,10 +2287,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T11"/>
+      <selection activeCell="A6" sqref="A6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2746,72 +2527,6 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2856,10 +2571,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T10"/>
+      <selection activeCell="A6" sqref="A6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3034,72 +2749,6 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3144,10 +2793,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T11"/>
+      <selection activeCell="A6" sqref="A6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3384,72 +3033,6 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3494,10 +3077,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T11"/>
+      <selection activeCell="A6" sqref="A6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3734,72 +3317,6 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3844,10 +3361,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:W10"/>
+      <selection activeCell="A5" sqref="A5:W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4082,81 +3599,6 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4195,10 +3637,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:L10"/>
+      <selection activeCell="A4" sqref="A4:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4377,48 +3819,6 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4446,10 +3846,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:I9"/>
+      <selection activeCell="A3" sqref="A3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4535,39 +3935,6 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4733,10 +4100,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:R10"/>
+      <selection activeCell="A4" sqref="A4:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4971,66 +4338,6 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5068,10 +4375,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:T10"/>
+      <selection activeCell="A5" sqref="A5:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5305,72 +4612,6 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5415,10 +4656,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T11"/>
+      <selection activeCell="A6" sqref="A6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5655,72 +4896,6 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5765,10 +4940,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T10"/>
+      <selection activeCell="A6" sqref="A6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5943,72 +5118,6 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/rekapan.xlsx
+++ b/rekapan.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>ALAT KERJA BAWASLU KABUPATEN/KOTA</t>
   </si>
@@ -77,19 +77,28 @@
     <t>Nama Pengawas</t>
   </si>
   <si>
-    <t>Rio</t>
+    <t>Leon</t>
   </si>
   <si>
     <t>Jabatan Pengawas Pemilu</t>
   </si>
   <si>
+    <t>Panwascam</t>
+  </si>
+  <si>
     <t>No HP</t>
   </si>
   <si>
     <t>Kab/Kota</t>
   </si>
   <si>
+    <t>Kupang</t>
+  </si>
+  <si>
     <t>Provinsi</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Timur</t>
   </si>
   <si>
     <r>
@@ -150,10 +159,13 @@
     <t>Jumlah Pemilih Pindah Keluar</t>
   </si>
   <si>
-    <t>Amabi Oefetoa</t>
-  </si>
-  <si>
-    <t>Amfoangs</t>
+    <t>Amabi Oefeto</t>
+  </si>
+  <si>
+    <t>Amfoang Selatan</t>
+  </si>
+  <si>
+    <t>Sulamu</t>
   </si>
   <si>
     <r>
@@ -397,9 +409,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Kupang</t>
-  </si>
-  <si>
     <t>1965-12-05</t>
   </si>
   <si>
@@ -421,10 +430,10 @@
     <t>Soe</t>
   </si>
   <si>
-    <t>Fatululi</t>
-  </si>
-  <si>
-    <t>Nusa Tenggara Timur</t>
+    <t>Batakte</t>
+  </si>
+  <si>
+    <t>Kupang Barat</t>
   </si>
   <si>
     <t>Naibila Nibala</t>
@@ -446,6 +455,54 @@
   </si>
   <si>
     <t>Atambua</t>
+  </si>
+  <si>
+    <t>Muhammad Albi</t>
+  </si>
+  <si>
+    <t>Bekasi, Jawa</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Streamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Abu Nae, </t>
+  </si>
+  <si>
+    <t>Oelomin</t>
+  </si>
+  <si>
+    <t>Nefoneut</t>
+  </si>
+  <si>
+    <t>Amfoang Barat Daya</t>
+  </si>
+  <si>
+    <t>Mario Thung</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
+  </si>
+  <si>
+    <t>Mahasiswa</t>
+  </si>
+  <si>
+    <t>Jl. Semarak Tafu, Naikliu.</t>
+  </si>
+  <si>
+    <t>Babau</t>
+  </si>
+  <si>
+    <t>Batuinan</t>
+  </si>
+  <si>
+    <t>Semau</t>
   </si>
   <si>
     <r>
@@ -492,9 +549,6 @@
     <t>AGUS SAGU</t>
   </si>
   <si>
-    <t>Laki-Laki</t>
-  </si>
-  <si>
     <t>2023-12-01</t>
   </si>
   <si>
@@ -699,6 +753,30 @@
     <t>2023-12-21</t>
   </si>
   <si>
+    <t>Leonardo Davinci</t>
+  </si>
+  <si>
+    <t>Petani</t>
+  </si>
+  <si>
+    <t>Jl. Salak</t>
+  </si>
+  <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
+    <t>Pakubaun</t>
+  </si>
+  <si>
+    <t>Amarasi Timur</t>
+  </si>
+  <si>
+    <t>Naikliu</t>
+  </si>
+  <si>
+    <t>Amfoang Utara</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">15.</t>
     </r>
@@ -808,6 +886,12 @@
   </si>
   <si>
     <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>Jl. Semarak Tafu, Naikliu, Amfoang Utara</t>
+  </si>
+  <si>
+    <t>2024-01-20</t>
   </si>
   <si>
     <r>
@@ -1434,10 +1518,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A15" sqref="A15:E18"/>
+      <selection activeCell="A15" sqref="A15:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1488,37 +1572,45 @@
         <v>6</v>
       </c>
       <c r="B8" s="26"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="24">
       <c r="A9" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="25">
+        <v>2147483647</v>
+      </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="24">
       <c r="A10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="26"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="24">
       <c r="A11" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -1528,7 +1620,7 @@
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="15.75">
       <c r="A13" s="24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1537,19 +1629,19 @@
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="45.75">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="15.75">
@@ -1557,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1568,15 +1660,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A17" s="34"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="34">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1587,6 +1683,48 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1622,10 +1760,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T7"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1637,7 +1775,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1645,44 +1783,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -1697,40 +1835,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -1751,7 +1889,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -1800,6 +1938,116 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1844,10 +2092,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T7"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1859,7 +2107,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1867,44 +2115,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -1919,40 +2167,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -1973,7 +2221,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2022,6 +2270,116 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2066,10 +2424,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T7"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2081,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="12" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2089,44 +2447,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -2145,34 +2503,34 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -2193,7 +2551,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2242,6 +2600,116 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2287,10 +2755,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T8"/>
+      <selection activeCell="A6" sqref="A6:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2302,7 +2770,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2310,44 +2778,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -2362,40 +2830,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -2416,7 +2884,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2424,7 +2892,7 @@
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
       <c r="A6" s="21" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
@@ -2433,78 +2901,118 @@
         <v>78</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="21">
+        <v>2</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="21">
-        <v>31</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="21">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="S6" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="11">
+        <v>14</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="11"/>
@@ -2527,6 +3035,138 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2571,10 +3211,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T7"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2586,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2594,44 +3234,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -2646,40 +3286,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -2700,7 +3340,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2749,6 +3389,116 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2793,10 +3543,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T8"/>
+      <selection activeCell="A6" sqref="A6:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2808,7 +3558,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2816,44 +3566,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -2868,40 +3618,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -2922,7 +3672,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2930,7 +3680,7 @@
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
       <c r="A6" s="21" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B6" s="21">
         <v>26</v>
@@ -2939,55 +3689,55 @@
         <v>78</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="K6" s="21">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="P6" s="21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3033,6 +3783,116 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3077,10 +3937,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T8"/>
+      <selection activeCell="A6" sqref="A6:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3092,7 +3952,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3100,44 +3960,44 @@
     </row>
     <row r="3" spans="1:20" customHeight="1" ht="15.75">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -3152,40 +4012,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -3206,7 +4066,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -3214,7 +4074,7 @@
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
       <c r="A6" s="21" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
@@ -3223,78 +4083,118 @@
         <v>78</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="K6" s="21">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="P6" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="11">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="11"/>
@@ -3317,6 +4217,138 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3361,10 +4393,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:W7"/>
+      <selection activeCell="A5" sqref="A5:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3377,7 +4409,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="12" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -3385,57 +4417,57 @@
     </row>
     <row r="3" spans="1:23" customHeight="1" ht="35.25">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
       <c r="Q3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:23" customHeight="1" ht="36">
@@ -3446,48 +4478,48 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="U4" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
     </row>
     <row r="5" spans="1:23" customHeight="1" ht="18">
       <c r="A5" s="21" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B5" s="21">
         <v>0</v>
@@ -3496,82 +4528,122 @@
         <v>78</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="A6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="11">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>2</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
@@ -3599,6 +4671,156 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3637,10 +4859,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:L7"/>
+      <selection activeCell="A4" sqref="A4:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3659,18 +4881,18 @@
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -3686,34 +4908,34 @@
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3721,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -3759,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="11">
         <v>0</v>
@@ -3789,22 +5011,46 @@
         <v>0</v>
       </c>
       <c r="L5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="11"/>
@@ -3819,6 +5065,90 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3846,10 +5176,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:I6"/>
+      <selection activeCell="A3" sqref="A3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3860,18 +5190,18 @@
   <sheetData>
     <row r="1" spans="1:9" customHeight="1" ht="31.5">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" customHeight="1" ht="53.25">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -3885,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15">
         <v>0</v>
@@ -3902,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -3915,9 +5245,15 @@
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -3935,6 +5271,72 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3978,18 +5380,18 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="30.75">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="15.75">
@@ -3997,10 +5399,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="15.75">
@@ -4008,14 +5410,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -4052,7 +5462,7 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="15.75">
@@ -4060,13 +5470,13 @@
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="47.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="15.75">
@@ -4100,10 +5510,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:R7"/>
+      <selection activeCell="A4" sqref="A4:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4114,51 +5524,51 @@
   <sheetData>
     <row r="1" spans="1:18" customHeight="1" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -4177,24 +5587,24 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:18" customHeight="1" ht="18">
@@ -4205,52 +5615,52 @@
         <v>9879879879</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4" s="21">
         <v>58</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N4" s="21">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4261,37 +5671,37 @@
         <v>5474574734</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F5" s="11">
         <v>24</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -4300,44 +5710,256 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="A6" s="11">
+        <v>5371062403050002</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5371062403050002</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="11">
+        <v>16</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="A7" s="11">
+        <v>5371062403050002</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5371062403050002</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4375,10 +5997,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:T7"/>
+      <selection activeCell="A5" sqref="A5:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4390,49 +6012,49 @@
   <sheetData>
     <row r="1" spans="1:20" customHeight="1" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
@@ -4447,40 +6069,40 @@
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="30" t="s">
+      <c r="R3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T3" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
@@ -4501,7 +6123,7 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
@@ -4509,7 +6131,7 @@
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
       <c r="A5" s="21" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B5" s="21">
         <v>0</v>
@@ -4518,55 +6140,55 @@
         <v>78</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K5" s="21">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="P5" s="21">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4612,6 +6234,116 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4656,10 +6388,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T8"/>
+      <selection activeCell="A6" sqref="A6:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4671,7 +6403,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4679,44 +6411,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -4731,40 +6463,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -4785,7 +6517,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -4793,64 +6525,64 @@
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
       <c r="A6" s="21" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K6" s="21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="P6" s="21">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -4896,6 +6628,116 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4940,10 +6782,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T7"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4955,7 +6797,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4963,44 +6805,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -5015,40 +6857,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -5069,7 +6911,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -5118,6 +6960,116 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/rekapan.xlsx
+++ b/rekapan.xlsx
@@ -1050,7 +1050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1062,43 +1062,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1151,11 +1114,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1238,28 +1198,19 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1564,10 +1515,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A15" sqref="A15:E17"/>
+      <selection activeCell="A15" sqref="A15:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1579,143 +1530,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="16.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="16.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="24">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="24">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="24">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26">
+      <c r="B9" s="26"/>
+      <c r="C9" s="25">
         <v>0</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="24">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="24">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="45.75">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A17" s="38">
+      <c r="A17" s="34">
         <v>3</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1751,10 +1751,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T5"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1765,170 +1765,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="15"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1973,10 +2083,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T5"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1987,170 +2097,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2195,10 +2415,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T5"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2209,168 +2429,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2416,10 +2746,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T7"/>
+      <selection activeCell="A6" sqref="A6:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2430,250 +2760,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>0</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>2</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="21">
         <v>1</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>14</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>10</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="11" t="s">
         <v>66</v>
       </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2718,10 +3202,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T5"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2732,170 +3216,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2940,10 +3534,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T6"/>
+      <selection activeCell="A6" sqref="A6:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2954,210 +3548,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>26</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>2</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="21">
         <v>1</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="15"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3202,10 +3928,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T7"/>
+      <selection activeCell="A6" sqref="A6:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3216,250 +3942,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:20" customHeight="1" ht="15.75">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>0</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>2</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="21">
         <v>1</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>23</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>1</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>2</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="11" t="s">
         <v>66</v>
       </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3504,10 +4384,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:W6"/>
+      <selection activeCell="A5" sqref="A5:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3519,244 +4399,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:23" customHeight="1" ht="35.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33" t="s">
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:23" customHeight="1" ht="36">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="20" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
     </row>
     <row r="5" spans="1:23" customHeight="1" ht="18">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21">
         <v>2</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="21">
         <v>1</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>23</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>2</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3795,10 +4850,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:L6"/>
+      <selection activeCell="A4" sqref="A4:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3816,177 +4871,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="15.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" customHeight="1" ht="72">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>0</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>1</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>0</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>1</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>0</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4014,10 +5167,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:I5"/>
+      <selection activeCell="A3" sqref="A3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4027,88 +5180,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customHeight="1" ht="31.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" customHeight="1" ht="53.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>0</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>0</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>0</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4151,45 +5370,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="30.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -4233,33 +5452,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A2" s="18"/>
+      <c r="A2" s="17"/>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="47.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" customHeight="1" ht="15.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -4282,10 +5501,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:R7"/>
+      <selection activeCell="A4" sqref="A4:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4295,303 +5514,443 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" customHeight="1" ht="36">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="19" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="20" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:18" customHeight="1" ht="18">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>7698798797</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>9879879879</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>58</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <v>2</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>45647357547</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>5474574734</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5371062403050002</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>5371062403050002</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>16</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>5371062403050002</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>5371062403050002</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>1</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>66</v>
       </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4629,10 +5988,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:T5"/>
+      <selection activeCell="A5" sqref="A5:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4643,185 +6002,339 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" customHeight="1" ht="15.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" customHeight="1" ht="18">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="19" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="20" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>2</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <v>2</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="21" t="s">
         <v>66</v>
       </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4866,10 +6379,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T6"/>
+      <selection activeCell="A6" sqref="A6:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4880,191 +6393,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>0</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>1</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="21">
         <v>2</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="1"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5109,10 +6773,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T5"/>
+      <selection activeCell="A6" sqref="A6:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5123,170 +6787,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/rekapan.xlsx
+++ b/rekapan.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>ALAT KERJA BAWASLU KABUPATEN/KOTA</t>
   </si>
@@ -77,19 +77,28 @@
     <t>Nama Pengawas</t>
   </si>
   <si>
-    <t>Pengawas 1</t>
+    <t>Leon</t>
   </si>
   <si>
     <t>Jabatan Pengawas Pemilu</t>
   </si>
   <si>
+    <t>Panwascam</t>
+  </si>
+  <si>
     <t>No HP</t>
   </si>
   <si>
     <t>Kab/Kota</t>
   </si>
   <si>
+    <t>Kupang</t>
+  </si>
+  <si>
     <t>Provinsi</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Timur</t>
   </si>
   <si>
     <r>
@@ -400,9 +409,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Kupang</t>
-  </si>
-  <si>
     <t>1965-12-05</t>
   </si>
   <si>
@@ -428,9 +434,6 @@
   </si>
   <si>
     <t>Kupang Barat</t>
-  </si>
-  <si>
-    <t>Nusa Tenggara Timur</t>
   </si>
   <si>
     <t>Naibila Nibala</t>
@@ -1569,18 +1572,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="26"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="24">
       <c r="A9" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="25">
-        <v>0</v>
+        <v>2147483647</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -1588,20 +1593,24 @@
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="24">
       <c r="A10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="26"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="24">
       <c r="A11" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -1611,7 +1620,7 @@
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="15.75">
       <c r="A13" s="24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1620,19 +1629,19 @@
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="45.75">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="15.75">
@@ -1640,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1651,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1662,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1766,7 +1775,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1774,44 +1783,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -1826,40 +1835,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -1880,7 +1889,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2098,7 +2107,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2106,44 +2115,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -2158,40 +2167,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -2212,7 +2221,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2430,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2438,44 +2447,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -2494,34 +2503,34 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -2542,7 +2551,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2761,7 +2770,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2769,44 +2778,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -2821,40 +2830,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -2875,7 +2884,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -2883,126 +2892,126 @@
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
       <c r="A6" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K6" s="21">
         <v>2</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P6" s="21">
         <v>1</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7" s="11">
         <v>14</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P7" s="11">
         <v>10</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -3217,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3225,44 +3234,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -3277,40 +3286,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -3331,7 +3340,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -3549,7 +3558,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3557,44 +3566,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -3609,40 +3618,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -3663,7 +3672,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -3671,64 +3680,64 @@
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
       <c r="A6" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K6" s="21">
         <v>2</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P6" s="21">
         <v>1</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3943,7 +3952,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3951,44 +3960,44 @@
     </row>
     <row r="3" spans="1:20" customHeight="1" ht="15.75">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -4003,40 +4012,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -4057,7 +4066,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -4065,126 +4074,126 @@
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
       <c r="A6" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K6" s="21">
         <v>2</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P6" s="21">
         <v>1</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P7" s="11">
         <v>2</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4400,7 +4409,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -4408,57 +4417,57 @@
     </row>
     <row r="3" spans="1:23" customHeight="1" ht="35.25">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
       <c r="Q3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:23" customHeight="1" ht="36">
@@ -4469,171 +4478,171 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="U4" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
     </row>
     <row r="5" spans="1:23" customHeight="1" ht="18">
       <c r="A5" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21">
         <v>2</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="21">
         <v>1</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11">
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="11">
         <v>2</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
@@ -4872,18 +4881,18 @@
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -4899,34 +4908,34 @@
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4934,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -4972,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="11">
         <v>0</v>
@@ -5010,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
@@ -5181,18 +5190,18 @@
   <sheetData>
     <row r="1" spans="1:9" customHeight="1" ht="31.5">
       <c r="A1" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" customHeight="1" ht="53.25">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5206,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15">
         <v>0</v>
@@ -5223,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="25">
         <v>0</v>
@@ -5240,7 +5249,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
@@ -5371,18 +5380,18 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="30.75">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="15.75">
@@ -5390,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -5401,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -5412,7 +5421,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5453,7 +5462,7 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="15.75">
@@ -5461,13 +5470,13 @@
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="47.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="15.75">
@@ -5515,51 +5524,51 @@
   <sheetData>
     <row r="1" spans="1:18" customHeight="1" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -5578,24 +5587,24 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:18" customHeight="1" ht="18">
@@ -5606,52 +5615,52 @@
         <v>9879879879</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="21">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N4" s="21">
         <v>2</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -5662,37 +5671,37 @@
         <v>5474574734</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -5708,52 +5717,52 @@
         <v>5371062403050002</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N6" s="11">
         <v>16</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -5764,52 +5773,52 @@
         <v>5371062403050002</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N7" s="11">
         <v>1</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -6003,49 +6012,49 @@
   <sheetData>
     <row r="1" spans="1:20" customHeight="1" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
@@ -6060,40 +6069,40 @@
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T3" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="18">
@@ -6114,7 +6123,7 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
@@ -6122,64 +6131,64 @@
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
       <c r="A5" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" s="21">
         <v>2</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P5" s="21">
         <v>2</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6394,7 +6403,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -6402,44 +6411,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -6454,40 +6463,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -6508,7 +6517,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -6516,64 +6525,64 @@
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="18">
       <c r="A6" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" s="21">
         <v>1</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P6" s="21">
         <v>2</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -6788,7 +6797,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -6796,44 +6805,44 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
@@ -6848,40 +6857,40 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="18">
@@ -6902,7 +6911,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
